--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\Uebungszettel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C896B6F-513D-7F4B-8D85-AFCCC3C6FA80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E589C18C-24B1-4558-AAE4-44BED00F69B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16245" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name:</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Ünlü Göksu</t>
   </si>
   <si>
-    <t>Lamrini Sanae</t>
-  </si>
-  <si>
     <t>Steffen Homann</t>
   </si>
   <si>
@@ -94,16 +91,29 @@
   </si>
   <si>
     <t>Govina Balasuloramaniam</t>
+  </si>
+  <si>
+    <t>Sanae Lamrini</t>
+  </si>
+  <si>
+    <t>Dilay Bulak (neu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -446,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E63DE8-7818-854E-80EF-FFEF2B1CB500}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,114 +515,119 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henni\Desktop\Uebungszettel\Uebungszettel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E589C18C-24B1-4558-AAE4-44BED00F69B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159319CD-DE0A-AE4C-A8BC-77781E2B2654}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="28245" windowHeight="16245" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Name:</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Dilay Bulak (neu)</t>
+  </si>
+  <si>
+    <t>Vorrechnen</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -457,18 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E63DE8-7818-854E-80EF-FFEF2B1CB500}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,123 +520,331 @@
       <c r="O1" s="1">
         <v>43132</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159319CD-DE0A-AE4C-A8BC-77781E2B2654}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470A7CB-B886-EB43-83C2-008671B1A0D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>Name:</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>(Elif Sacan)</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E63DE8-7818-854E-80EF-FFEF2B1CB500}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,6 +565,9 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -579,6 +585,9 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -596,6 +605,9 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -613,6 +625,9 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -630,6 +645,9 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -644,6 +662,9 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -675,6 +696,9 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -686,6 +710,9 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -697,6 +724,9 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -711,6 +741,9 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -740,7 +773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -756,8 +789,11 @@
       <c r="E17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -767,8 +803,11 @@
       <c r="D18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -776,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -789,8 +828,11 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -806,8 +848,11 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -821,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -835,11 +880,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470A7CB-B886-EB43-83C2-008671B1A0D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E037F1-7A4D-724A-A6EC-C5FBDDBC91AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="27">
   <si>
     <t>Name:</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,6 +534,9 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -548,6 +551,9 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -588,6 +594,9 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -608,6 +617,9 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -628,6 +640,9 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -648,6 +663,9 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -665,6 +683,9 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -679,6 +700,9 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -699,6 +723,9 @@
       <c r="F11" t="s">
         <v>25</v>
       </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -713,6 +740,9 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -727,6 +757,9 @@
       <c r="F13" t="s">
         <v>25</v>
       </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -744,6 +777,9 @@
       <c r="F14" t="s">
         <v>25</v>
       </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -773,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -792,8 +828,11 @@
       <c r="F17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -807,7 +846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -815,7 +854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -831,8 +870,11 @@
       <c r="F20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -851,8 +893,11 @@
       <c r="F21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -866,7 +911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -879,8 +924,11 @@
       <c r="E23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -890,12 +938,18 @@
       <c r="F24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E037F1-7A4D-724A-A6EC-C5FBDDBC91AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D74361-36F9-6344-9EF0-5624821699EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
   <si>
     <t>Name:</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,6 +537,9 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -554,6 +557,9 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -620,6 +626,9 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -643,6 +652,9 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -666,6 +678,9 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -686,6 +701,9 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -703,6 +721,9 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -726,6 +747,9 @@
       <c r="G11" t="s">
         <v>25</v>
       </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -743,6 +767,9 @@
       <c r="G12" t="s">
         <v>25</v>
       </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -780,6 +807,9 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -794,6 +824,9 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -809,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -831,8 +864,11 @@
       <c r="G17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -846,7 +882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -854,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -874,7 +910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -896,8 +932,11 @@
       <c r="G21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -911,7 +950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -927,8 +966,11 @@
       <c r="G23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -942,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -950,6 +992,9 @@
         <v>25</v>
       </c>
       <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D74361-36F9-6344-9EF0-5624821699EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE48C69-74C2-F443-A9B3-5329B667BB1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="27">
   <si>
     <t>Name:</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,6 +540,9 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -560,6 +563,9 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -580,6 +586,9 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -603,6 +612,9 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -629,6 +641,9 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -655,6 +670,9 @@
       <c r="H7" t="s">
         <v>25</v>
       </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -681,6 +699,9 @@
       <c r="H8" t="s">
         <v>25</v>
       </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -704,6 +725,9 @@
       <c r="H9" t="s">
         <v>25</v>
       </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -750,6 +774,9 @@
       <c r="H11" t="s">
         <v>25</v>
       </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -810,6 +837,9 @@
       <c r="H14" t="s">
         <v>25</v>
       </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -827,6 +857,9 @@
       <c r="H15" t="s">
         <v>25</v>
       </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -842,7 +875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -867,8 +900,11 @@
       <c r="H17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -882,7 +918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -890,7 +926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -910,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -936,7 +972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -950,7 +986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -969,8 +1005,11 @@
       <c r="H23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -984,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -995,6 +1034,9 @@
         <v>25</v>
       </c>
       <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Anwesenheitsliste.xlsx
+++ b/Anwesenheitsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauritz/UNI/5. Semester/Uebungszettel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE48C69-74C2-F443-A9B3-5329B667BB1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F976877-B413-284D-8E2E-8A9E61E7A53C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{C1968EF8-8ED1-B94E-AD47-0EC0109310C3}"/>
   </bookViews>
@@ -99,13 +99,13 @@
     <t>Dilay Bulak (neu)</t>
   </si>
   <si>
-    <t>Vorrechnen</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>(Elif Sacan)</t>
+  </si>
+  <si>
+    <t>(Keine Liste)</t>
   </si>
 </sst>
 </file>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E63DE8-7818-854E-80EF-FFEF2B1CB500}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,370 +509,367 @@
         <v>43455</v>
       </c>
       <c r="K1" s="1">
-        <v>43104</v>
+        <v>43111</v>
       </c>
       <c r="L1" s="1">
-        <v>43111</v>
+        <v>43118</v>
       </c>
       <c r="M1" s="1">
-        <v>43118</v>
+        <v>43125</v>
       </c>
       <c r="N1" s="1">
-        <v>43125</v>
-      </c>
-      <c r="O1" s="1">
         <v>43132</v>
       </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -880,28 +877,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -909,13 +906,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -923,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -931,19 +928,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -951,25 +948,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -977,13 +974,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -991,22 +988,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1014,30 +1011,30 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
